--- a/docs/Define merges and diffs.xlsx
+++ b/docs/Define merges and diffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Documents/Projects/Pragma-git/Pragma-git/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1444C6-DC76-B64E-855B-A3A39AE7D195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05006D93-4083-D440-88EA-74E1CCD4FAA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29440" yWindow="11520" windowWidth="28040" windowHeight="17440" xr2:uid="{F41B7186-2348-6B4C-A6A8-C3BAD1CA00B3}"/>
+    <workbookView xWindow="2800" yWindow="8240" windowWidth="32840" windowHeight="20980" xr2:uid="{F41B7186-2348-6B4C-A6A8-C3BAD1CA00B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>create_merge_conflict.command</t>
   </si>
@@ -170,6 +170,9 @@
     <t>selected</t>
   </si>
   <si>
+    <t>left</t>
+  </si>
+  <si>
     <t>left (editor=off)</t>
   </si>
   <si>
@@ -195,13 +198,37 @@
   </si>
   <si>
     <t>BASE = MERGED ( if REMOTE != MERGED from test above)</t>
+  </si>
+  <si>
+    <t>2-way</t>
+  </si>
+  <si>
+    <t>----|</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |----    not used suggestions</t>
+  </si>
+  <si>
+    <t>Used 2-way label</t>
+  </si>
+  <si>
+    <t>3-way</t>
+  </si>
+  <si>
+    <t>No 3-way for diffs</t>
+  </si>
+  <si>
+    <t>3-way labels</t>
+  </si>
+  <si>
+    <t>merge here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,6 +247,13 @@
     <font>
       <sz val="12"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,10 +279,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,29 +599,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5647BE7E-07BA-7E4A-817F-6ED6FAEFC06B}">
-  <dimension ref="B3:J37"/>
+  <dimension ref="B3:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" activeCellId="1" sqref="C37 C35"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="70.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="4" max="5" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -593,15 +651,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -609,22 +673,28 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -635,42 +705,52 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J10" t="s">
+      <c r="L9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -678,15 +758,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -694,19 +777,22 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>32</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -716,17 +802,20 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>33</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -734,80 +823,85 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="J23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="J24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>27</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>30</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
       </c>
       <c r="H26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -815,17 +909,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>10</v>
       </c>
@@ -833,49 +929,52 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>2</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>12</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>27</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
       </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
         <v>28</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -883,9 +982,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Define merges and diffs.xlsx
+++ b/docs/Define merges and diffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Documents/Projects/Pragma-git/Pragma-git/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05006D93-4083-D440-88EA-74E1CCD4FAA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A9EE6E-1B65-6042-88B7-4CD02395E7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="8240" windowWidth="32840" windowHeight="20980" xr2:uid="{F41B7186-2348-6B4C-A6A8-C3BAD1CA00B3}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="B3:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
